--- a/3_Results/34_ResultsART/art_individual_interaction.xlsx
+++ b/3_Results/34_ResultsART/art_individual_interaction.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Y2_ik ~ T_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y2_ik ~ T_k + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + marital_status + education + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y2_ik ~ T_k + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected</t>
+          <t>Y2_ik ~ T_k + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + marital_status + education + prop_vlsupp</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Y2_ik ~ T_k + X3_ik + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * prop_began_infected</t>
+          <t>Y2_ik ~ T_k + X3_ik + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + marital_status + education + prop_vlsupp + T_k * gender + T_k * age + T_k * monthly_income + T_k * education + T_k * prop_began_infected</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Y2_ik ~ T_k + X3_ik + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected</t>
+          <t>Y2_ik ~ T_k + X3_ik + gender + age + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + marital_status + education + prop_vlsupp</t>
         </is>
       </c>
     </row>
@@ -569,20 +569,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.18 (-0.66, 0.29)</t>
+          <t>-0.27 (-0.83, 0.29)</t>
         </is>
       </c>
       <c r="E2">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H2">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -603,20 +603,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.08 (-0.56, 0.4)</t>
+          <t>-0.28 (-0.85, 0.28)</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -637,14 +637,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.01 (-0.81, 0.8)</t>
+          <t>0.01 (-0.78, 0.8)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G4">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H4">
         <v>0.41</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.1 (NA, NA)</t>
+          <t>0.01 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -690,17 +690,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.02 (-3, 3.04)</t>
+          <t>-0.04 (-3.03, 2.95)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="G6">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="H6">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="7">
@@ -721,7 +721,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.54 (NA, NA)</t>
+          <t>-0.04 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -798,20 +798,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.83 (0.52, 1.34)</t>
+          <t>0.76 (0.44, 1.33)</t>
         </is>
       </c>
       <c r="E2">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H2">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -832,20 +832,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92 (0.57, 1.49)</t>
+          <t>0.75 (0.43, 1.33)</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -866,14 +866,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.99 (0.44, 2.23)</t>
+          <t>1.01 (0.46, 2.24)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G4">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H4">
         <v>0.41</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.91 (NA, NA)</t>
+          <t>1.01 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.02 (-3, 3.04)</t>
+          <t>-0.04 (-3.03, 2.95)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="G6">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="H6">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +950,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.54 (NA, NA)</t>
+          <t>-0.04 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,20 +1017,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.18 (-0.66, 0.29)</t>
+          <t>-0.27 (-0.83, 0.29)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G2">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -1046,20 +1046,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.58 (0.05, 1.12)</t>
+          <t>0.62 (0.08, 1.16)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G3">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.02 (-0.01, 0.04)</t>
+          <t>0.02 (-0.01, 0.05)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.78 (-2.93, 1.37)</t>
+          <t>-0.73 (-2.89, 1.42)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G5">
         <v>1.1</v>
@@ -1133,11 +1133,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.56 (-1.66, 2.79)</t>
+          <t>0.47 (-1.76, 2.7)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1162,11 +1162,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0 (-2.15, 2.15)</t>
+          <t>-0.04 (-2.19, 2.11)</t>
         </is>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1191,20 +1191,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.48 (-3.29, 2.33)</t>
+          <t>-0.26 (-3.12, 2.6)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="G8">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1215,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>monthly_incomeMissing</t>
+          <t>monthly_incomeMore than 10000 pula</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-13.22 (-1016.72, 990.29)</t>
+          <t>1.12 (-1.87, 4.11)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>262145.62</v>
+        <v>2.32</v>
       </c>
       <c r="G9">
-        <v>512</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="10">
@@ -1244,25 +1244,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>monthly_incomeMore than 10000 pula</t>
+          <t>monthly_incomeNo income</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.66 (-2.17, 3.48)</t>
+          <t>0.58 (-1.43, 2.58)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="G10">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="11">
@@ -1273,25 +1273,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>monthly_incomeNo income</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.58 (-1.42, 2.59)</t>
+          <t>0.24 (0.03, 0.44)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.57</v>
+        <v>0.02</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.05</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.24 (0.04, 0.44)</t>
+          <t>-0.47 (-0.83, -0.1)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13">
@@ -1331,25 +1331,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.52 (-0.9, -0.15)</t>
+          <t>-3.99 (-8.75, 0.77)</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.04</v>
+        <v>5.89</v>
       </c>
       <c r="G13">
-        <v>0.19</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="14">
@@ -1360,25 +1360,228 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-3.05 (-6.86, 0.77)</t>
+          <t>-0.55 (-2.2, 1.1)</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.12</v>
+        <v>0.51</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.78</v>
+        <v>0.71</v>
       </c>
       <c r="G14">
-        <v>1.94</v>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>marital_statusSingle/never married</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.15 (-1.32, 1.63)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.84</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.57</v>
+      </c>
+      <c r="G15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.62 (-0.99, 2.23)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.68</v>
+      </c>
+      <c r="G16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.06 (-1.32, 1.43)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.93</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.49</v>
+      </c>
+      <c r="G17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.13 (-1.35, 1.61)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.86</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.57</v>
+      </c>
+      <c r="G18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.54 (-0.84, 1.92)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.44</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.49</v>
+      </c>
+      <c r="G19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.23 (-1.39, 1.84)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.78</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.68</v>
+      </c>
+      <c r="G20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.21 (-3.21, 5.62)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.59</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5.08</v>
+      </c>
+      <c r="G21">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1591,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1444,20 +1647,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.83 (0.52, 1.34)</t>
+          <t>0.76 (0.44, 1.33)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G2">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -1473,20 +1676,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.79 (1.06, 3.05)</t>
+          <t>1.86 (1.08, 3.2)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G3">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -1502,11 +1705,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.02 (0.99, 1.04)</t>
+          <t>1.02 (0.99, 1.05)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1515,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -1531,17 +1734,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.46 (0.05, 3.94)</t>
+          <t>0.48 (0.06, 4.15)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G5">
         <v>1.1</v>
@@ -1560,11 +1763,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.76 (0.19, 16.26)</t>
+          <t>1.6 (0.17, 14.87)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1589,11 +1792,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1 (0.12, 8.56)</t>
+          <t>0.96 (0.11, 8.23)</t>
         </is>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1618,20 +1821,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.62 (0.04, 10.31)</t>
+          <t>0.77 (0.04, 13.48)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="G8">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9">
@@ -1642,25 +1845,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>monthly_incomeMissing</t>
+          <t>monthly_incomeMore than 10000 pula</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0 (0, Inf)</t>
+          <t>3.06 (0.15, 60.81)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.98</v>
+        <v>0.46</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>262145.62</v>
+        <v>2.32</v>
       </c>
       <c r="G9">
-        <v>512</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="10">
@@ -1671,25 +1874,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>monthly_incomeMore than 10000 pula</t>
+          <t>monthly_incomeNo income</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.93 (0.11, 32.5)</t>
+          <t>1.78 (0.24, 13.26)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="G10">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="11">
@@ -1700,25 +1903,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>monthly_incomeNo income</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.79 (0.24, 13.34)</t>
+          <t>1.27 (1.03, 1.55)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.57</v>
+        <v>0.02</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.05</v>
+        <v>0.01</v>
       </c>
       <c r="G11">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -1729,25 +1932,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.27 (1.04, 1.56)</t>
+          <t>0.63 (0.43, 0.91)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13">
@@ -1758,25 +1961,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.59 (0.41, 0.86)</t>
+          <t>0.02 (0, 2.15)</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.04</v>
+        <v>5.89</v>
       </c>
       <c r="G13">
-        <v>0.19</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="14">
@@ -1787,25 +1990,228 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.05 (0, 2.15)</t>
+          <t>0.58 (0.11, 3.01)</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.12</v>
+        <v>0.51</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.78</v>
+        <v>0.71</v>
       </c>
       <c r="G14">
-        <v>1.94</v>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>marital_statusSingle/never married</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.16 (0.27, 5.1)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.84</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.57</v>
+      </c>
+      <c r="G15">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.85 (0.37, 9.3)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.68</v>
+      </c>
+      <c r="G16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.06 (0.27, 4.18)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.93</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.49</v>
+      </c>
+      <c r="G17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.14 (0.26, 4.98)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.86</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.57</v>
+      </c>
+      <c r="G18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.71 (0.43, 6.79)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.44</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.49</v>
+      </c>
+      <c r="G19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.25 (0.25, 6.31)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.78</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.68</v>
+      </c>
+      <c r="G20">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3.34 (0.04, 276.08)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.59</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5.08</v>
+      </c>
+      <c r="G21">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1871,20 +2277,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.08 (-0.56, 0.4)</t>
+          <t>-0.28 (-0.85, 0.28)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -1900,7 +2306,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.76 (-2.34, -1.17)</t>
+          <t>-1.82 (-2.42, -1.22)</t>
         </is>
       </c>
       <c r="D3">
@@ -1929,7 +2335,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.69 (0.15, 1.23)</t>
+          <t>0.69 (0.15, 1.24)</t>
         </is>
       </c>
       <c r="D4">
@@ -1939,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G4">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -1958,11 +2364,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.03 (0, 0.05)</t>
+          <t>0.02 (-0.01, 0.05)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1971,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -1987,17 +2393,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.95 (-3.1, 1.21)</t>
+          <t>-0.89 (-3.05, 1.27)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G6">
         <v>1.1</v>
@@ -2016,11 +2422,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.56 (-1.67, 2.8)</t>
+          <t>0.49 (-1.75, 2.72)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2045,11 +2451,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.23 (-2.38, 1.93)</t>
+          <t>-0.28 (-2.44, 1.88)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2074,20 +2480,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.77 (-3.61, 2.06)</t>
+          <t>-0.46 (-3.36, 2.43)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="G9">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10">
@@ -2098,25 +2504,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>monthly_incomeMissing</t>
+          <t>monthly_incomeMore than 10000 pula</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-19.31 (-58345.17, 58306.55)</t>
+          <t>0.46 (-2.63, 3.55)</t>
         </is>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>885576605.33</v>
+        <v>2.48</v>
       </c>
       <c r="G10">
-        <v>29758.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="11">
@@ -2127,25 +2533,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>monthly_incomeMore than 10000 pula</t>
+          <t>monthly_incomeNo income</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0 (-2.87, 2.87)</t>
+          <t>0.45 (-1.57, 2.46)</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="G11">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="12">
@@ -2156,25 +2562,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>monthly_incomeNo income</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.47 (-1.54, 2.48)</t>
+          <t>0.15 (-0.06, 0.36)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.65</v>
+        <v>0.15</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.05</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
-        <v>1.03</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13">
@@ -2185,25 +2591,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.15 (-0.06, 0.36)</t>
+          <t>-0.53 (-0.9, -0.16)</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G13">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14">
@@ -2214,25 +2620,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.57 (-0.94, -0.2)</t>
+          <t>-4.09 (-8.89, 0.71)</t>
         </is>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.04</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>0.19</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="15">
@@ -2243,25 +2649,228 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-2.07 (-5.87, 1.73)</t>
+          <t>-0.39 (-2.06, 1.28)</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.76</v>
+        <v>0.73</v>
       </c>
       <c r="G15">
-        <v>1.94</v>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>marital_statusSingle/never married</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.28 (-1.22, 1.78)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.71</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.58</v>
+      </c>
+      <c r="G16">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.73 (-0.9, 2.37)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.38</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.7</v>
+      </c>
+      <c r="G17">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.2 (-1.22, 1.62)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.78</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.52</v>
+      </c>
+      <c r="G18">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.24 (-1.28, 1.76)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.76</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.7 (-0.72, 2.12)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.34</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.52</v>
+      </c>
+      <c r="G20">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.24 (-1.42, 1.89)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.78</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.71</v>
+      </c>
+      <c r="G21">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2.88 (-1.64, 7.4)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.21</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>5.32</v>
+      </c>
+      <c r="G22">
+        <v>2.31</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2880,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2327,20 +2936,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.92 (0.57, 1.49)</t>
+          <t>0.75 (0.43, 1.33)</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -2356,7 +2965,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.17 (0.1, 0.31)</t>
+          <t>0.16 (0.09, 0.29)</t>
         </is>
       </c>
       <c r="D3">
@@ -2385,7 +2994,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.99 (1.16, 3.41)</t>
+          <t>2 (1.16, 3.46)</t>
         </is>
       </c>
       <c r="D4">
@@ -2395,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G4">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -2414,11 +3023,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.03 (1, 1.05)</t>
+          <t>1.02 (0.99, 1.06)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2427,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -2443,17 +3052,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.39 (0.05, 3.35)</t>
+          <t>0.41 (0.05, 3.58)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G6">
         <v>1.1</v>
@@ -2472,11 +3081,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.76 (0.19, 16.4)</t>
+          <t>1.63 (0.17, 15.21)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2501,11 +3110,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8 (0.09, 6.88)</t>
+          <t>0.76 (0.09, 6.56)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2530,20 +3139,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.46 (0.03, 7.86)</t>
+          <t>0.63 (0.03, 11.38)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="G9">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10">
@@ -2554,25 +3163,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>monthly_incomeMissing</t>
+          <t>monthly_incomeMore than 10000 pula</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0 (0, Inf)</t>
+          <t>1.59 (0.07, 34.88)</t>
         </is>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>885576605.33</v>
+        <v>2.48</v>
       </c>
       <c r="G10">
-        <v>29758.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="11">
@@ -2583,25 +3192,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>monthly_incomeMore than 10000 pula</t>
+          <t>monthly_incomeNo income</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1 (0.06, 17.62)</t>
+          <t>1.56 (0.21, 11.69)</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="G11">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="12">
@@ -2612,25 +3221,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>monthly_incomeNo income</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.59 (0.21, 11.89)</t>
+          <t>1.16 (0.94, 1.43)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.65</v>
+        <v>0.15</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.05</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
-        <v>1.03</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13">
@@ -2641,25 +3250,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.16 (0.94, 1.43)</t>
+          <t>0.59 (0.41, 0.85)</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G13">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14">
@@ -2670,25 +3279,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.56 (0.39, 0.82)</t>
+          <t>0.02 (0, 2.04)</t>
         </is>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.04</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>0.19</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="15">
@@ -2699,25 +3308,228 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.13 (0, 5.65)</t>
+          <t>0.68 (0.13, 3.61)</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.76</v>
+        <v>0.73</v>
       </c>
       <c r="G15">
-        <v>1.94</v>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>marital_statusSingle/never married</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.32 (0.3, 5.93)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.71</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.58</v>
+      </c>
+      <c r="G16">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2.08 (0.4, 10.68)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.38</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.7</v>
+      </c>
+      <c r="G17">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>educationJunior secondary</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.23 (0.3, 5.07)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.78</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.52</v>
+      </c>
+      <c r="G18">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>educationNon-formal</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.27 (0.28, 5.78)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.76</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>educationPrimary</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2 (0.48, 8.29)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.34</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.52</v>
+      </c>
+      <c r="G20">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>educationSenior secondary</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.27 (0.24, 6.64)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.78</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.71</v>
+      </c>
+      <c r="G21">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17.8 (0.19, 1633.78)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.21</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>5.32</v>
+      </c>
+      <c r="G22">
+        <v>2.31</v>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +3570,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T_k:monthly_income</t>
+          <t>T_k:prop_began_infected</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2775,7 +3587,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T_k:prop_began_infected</t>
+          <t>T_k:gender</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2787,12 +3599,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>marital_status</t>
+          <t>monthly_income</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T_k:gender</t>
+          <t>T_k:monthly_income</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2804,12 +3616,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>alcohol_weekly</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>prop_vlsupp</t>
+          <t>T_k:education</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2821,7 +3633,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>monthly_income</t>
+          <t>partners_12mos</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2838,12 +3650,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>education</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2855,12 +3662,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>prop_male</t>
+          <t>marital_status</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2872,10 +3674,10 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+          <t>education</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>marital_status</t>
         </is>
@@ -2884,13 +3686,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>prop_male</t>
+          <t>prop_vlsupp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>education</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>T_k*gender</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>prop_vlsupp</t>
         </is>
       </c>
@@ -2898,21 +3710,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T_k*gender</t>
+          <t>T_k*age</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T_k*age</t>
+          <t>T_k*monthly_income</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T_k*monthly_income</t>
+          <t>T_k*education</t>
         </is>
       </c>
     </row>
